--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/loginMsg.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/loginMsg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,9 +66,6 @@
     <t>set_pwd_tips_one</t>
   </si>
   <si>
-    <t>It must include three types of the capital letters, lowercase letters, numbers and special characters, and cannot be less than 8 characters nor exceed 30 characters</t>
-  </si>
-  <si>
     <t>set_pwd_tips_two</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>set_pwd_tips_six</t>
   </si>
   <si>
-    <t>Personal username cannot be included in the password</t>
-  </si>
-  <si>
     <t>pwd_seted</t>
   </si>
   <si>
@@ -138,15 +132,9 @@
     <t>create_key</t>
   </si>
   <si>
-    <t>Create new key pair</t>
-  </si>
-  <si>
     <t>pwd_not_same</t>
   </si>
   <si>
-    <t>'Passwords input the two times are consistent!';</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -487,6 +475,22 @@
       </rPr>
       <t>';</t>
     </r>
+  </si>
+  <si>
+    <t>Password must include three types among the capital and lowercase letters, numbers and special characters, and the length should be between 8-30 characters.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username cannot be included in the password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passwords input are inconsistent';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create key pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -541,9 +545,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -886,14 +896,14 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="182.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -901,10 +911,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -912,10 +922,10 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -923,10 +933,10 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -934,10 +944,10 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -945,21 +955,21 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -967,172 +977,172 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C21 A1:A21" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C7 A1:A21 C9:C12 C14:C19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>